--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3991AB2-F2CA-47A4-B649-CBC0AD1B9DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{277F8249-DEA5-4A8A-A280-2F60689AB9F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D1E1B324-FB3F-491B-A5DA-1E59AB58FA35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
   <si>
     <t>Nome da despesa</t>
   </si>
@@ -71,15 +75,52 @@
   <si>
     <t>Supérfluo</t>
   </si>
+  <si>
+    <t>Custo beneficio</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>Conta itens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Estimar gastos</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma de Valor </t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Importante Total</t>
+  </si>
+  <si>
+    <t>Supérfluo Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +130,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,15 +188,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,11 +207,686 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="43">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -176,6 +897,1907 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pasta1.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Importante - Caro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Água/luz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cônvenio </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Supermercado</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Viagem férias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DD1-46A2-9D79-1746A76F21B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Importante - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Água/luz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cônvenio </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Supermercado</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Viagem férias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DD1-46A2-9D79-1746A76F21B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Supérfluo - Caro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Água/luz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cônvenio </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Supermercado</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Viagem férias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$E$6:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DD1-46A2-9D79-1746A76F21B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Supérfluo - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Academia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Água/luz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cônvenio </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Supermercado</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Viagem férias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DD1-46A2-9D79-1746A76F21B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1849346303"/>
+        <c:axId val="1971782351"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1849346303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1971782351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1971782351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849346303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77EB9F8-B141-47D4-8184-B14855B44488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45162.934078124999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" xr:uid="{3EBD528E-66EB-4DD3-8BDF-11EB8008A9F2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D10" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Nome da despesa" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Aluguel"/>
+        <s v="Água/luz"/>
+        <s v="Supermercado"/>
+        <s v="Transporte"/>
+        <s v="Streaming"/>
+        <s v="Academia"/>
+        <s v="Cônvenio "/>
+        <s v="Lazer"/>
+        <s v="Viagem férias"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor " numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="120" maxValue="4000"/>
+    </cacheField>
+    <cacheField name="Grau de importância" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Importante"/>
+        <s v="Supérfluo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Custo beneficio" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Normal"/>
+        <s v="Caro"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <n v="1200"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="350"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="700"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="300"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="120"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="200"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="650"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="500"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4000"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33868F1F-10A3-4A49-AF73-EE8DD48FD3A1}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:H15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor " fld="1" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="28">
+    <format dxfId="42">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0" defaultSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0" defaultSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="20">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,11 +3096,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA912B2-B497-4752-954F-DFB30706EBEF}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E052A3-B0E1-4B05-9E43-7BAD33C5E619}">
+  <dimension ref="A3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>200</v>
+      </c>
+      <c r="H6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
+        <v>350</v>
+      </c>
+      <c r="D7" s="10">
+        <v>350</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
+        <v>650</v>
+      </c>
+      <c r="D9" s="10">
+        <v>650</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>500</v>
+      </c>
+      <c r="G10" s="10">
+        <v>500</v>
+      </c>
+      <c r="H10" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>120</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>120</v>
+      </c>
+      <c r="H11" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
+        <v>700</v>
+      </c>
+      <c r="D12" s="10">
+        <v>700</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>300</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <v>300</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10">
+        <v>300</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2900</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4320</v>
+      </c>
+      <c r="F15" s="10">
+        <v>500</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4820</v>
+      </c>
+      <c r="H15" s="10">
+        <v>8020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA912B2-B497-4752-954F-DFB30706EBEF}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,127 +3376,196 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1200</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>350</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>700</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>300</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>650</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>4000</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
         <v>8020</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f>COUNTIF(C1:C10,B15)</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUMIF(C2:C10,B15,B2:B10)</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <f>COUNTIF(C2:C11,B16)</f>
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8">
+        <f>SUMIF(C3:C11,B16,B3:B11)</f>
+        <v>4820</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
